--- a/biology/Histoire de la zoologie et de la botanique/Gustave_Loisel/Gustave_Loisel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gustave_Loisel/Gustave_Loisel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustave Antoine Armand Loisel est un zoologiste français né le 27 novembre 1864 à Méry-Corbon (Calvados) et mort le 11 juillet 1933 dans le 7e arrondissement de Paris.
 Gustave Loisel fut docteur ès sciences et docteur en médecine, biologiste de carrière et professeur en Sorbonne.
@@ -512,7 +524,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Professeur de Zoologie des cours secondaires à la Sorbonne, Gustave Loisel a été directeur du Laboratoire d'embryologie générale et expérimentale à l'École pratique des hautes études.
 Gustave Loisel est l'auteur, en 1912, de l'Histoire des Ménageries de l'Antiquité à nos jours, en trois volumes. Lors de la réorganisation de la « vieille ménagerie nationale », il avait mis à profit ses missions scientifiques effectuées en 1905 et 1906 auprès des jardins zoologiques d'Europe et d'Amérique pour rassembler une impressionnante documentation sur la « coutume de garder des animaux sauvages en captivité ».
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustave LOISEL (1906), Exposé des titres et travaux scientifiques (1892-1905), Imprimerie générale Lahure (Paris), 211 p.
 Gustave LOISEL (1906), Projet de réorganisation de la Ménagerie du Muséum, Revue internationale de l'enseignement, Tome cinquante-unième, Janvier à Juillet, p.63-68.
